--- a/demo/test.xlsx
+++ b/demo/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1047,12 +1047,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/demo/test.xlsx
+++ b/demo/test.xlsx
@@ -16,12 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>管理系统</t>
+  </si>
+  <si>
+    <t>Manager System</t>
+  </si>
+  <si>
+    <t>login.signin</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>login.account</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>login.password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>table.dialog.ok</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>tips.fail</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>tips.success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -637,9 +703,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -693,6 +762,17 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -703,12 +783,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:B10" totalsRowShown="0">
-  <tableColumns count="2">
-    <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="value"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C10" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Key" dataDxfId="0"/>
+    <tableColumn id="2" name="中文" dataDxfId="1"/>
+    <tableColumn id="3" name="English" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -999,90 +1080,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>5</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
